--- a/biology/Médecine/Laurence_Zitvogel/Laurence_Zitvogel.xlsx
+++ b/biology/Médecine/Laurence_Zitvogel/Laurence_Zitvogel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurence Zitvogel (née le 25 décembre 1963 à Suresnes[1]) est une oncologue et immunologiste française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurence Zitvogel (née le 25 décembre 1963 à Suresnes) est une oncologue et immunologiste française.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oncologue à Villejuif et directrice du Département d'immunologie des tumeurs et immunothérapie à Gustave-Roussy[2], elle s'intéresse à la flore intestinale, considérée comme un « deuxième cerveau » par les chercheurs actuels[3],[4]. Elle est également professeure à l'Université Paris-Sud[5].
-Elle obtient son doctorat de médecine à l'université de Pittsburgh en 1995[1]. Elle rentre alors en France et entre à l’Institut Gustave-Roussy où elle travaille toujours[2]. À ses débuts en tant que médecin, elle remporte la bourse de la Fondation Marcel-Bleustein-Blanchet pour la vocation[6].
-Elle reçoit le prix INSERM Recherche clinique et thérapeutique en 2007[7].
-Selon Jules Hoffmann, prix Nobel de physiologie ou médecine 2011, Laurence Zitvogel est l'une des « personnalités les plus marquantes de son milieu »[4].
-En octobre 2017, elle reçoit le premier « ESMO (European Society of Medical Oncology) Award for Immuno-Oncology » pour avoir intégré le microbiote intestinal dans la complexité de l'immunothérapie[5].
-En avril 2018, elle reçoit avec son compagnon, Guido Kroemer, le prix Baillet Latour en Belgique[8] pour leurs travaux de recherche sur l'immunosurveillance cancéreuse[8]. 
-Le 14 juillet 2018, elle est promue officier de l'ordre national de la Légion d'honneur[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oncologue à Villejuif et directrice du Département d'immunologie des tumeurs et immunothérapie à Gustave-Roussy, elle s'intéresse à la flore intestinale, considérée comme un « deuxième cerveau » par les chercheurs actuels,. Elle est également professeure à l'Université Paris-Sud.
+Elle obtient son doctorat de médecine à l'université de Pittsburgh en 1995. Elle rentre alors en France et entre à l’Institut Gustave-Roussy où elle travaille toujours. À ses débuts en tant que médecin, elle remporte la bourse de la Fondation Marcel-Bleustein-Blanchet pour la vocation.
+Elle reçoit le prix INSERM Recherche clinique et thérapeutique en 2007.
+Selon Jules Hoffmann, prix Nobel de physiologie ou médecine 2011, Laurence Zitvogel est l'une des « personnalités les plus marquantes de son milieu ».
+En octobre 2017, elle reçoit le premier « ESMO (European Society of Medical Oncology) Award for Immuno-Oncology » pour avoir intégré le microbiote intestinal dans la complexité de l'immunothérapie.
+En avril 2018, elle reçoit avec son compagnon, Guido Kroemer, le prix Baillet Latour en Belgique pour leurs travaux de recherche sur l'immunosurveillance cancéreuse. 
+Le 14 juillet 2018, elle est promue officier de l'ordre national de la Légion d'honneur.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurence Zitvogel travaille sur de nouveaux moyens de combattre le cancer par l'immunothérapie[10]. Elle s'intéresse plus particulièrement aux bactéries de la flore intestinale et a découvert avec son équipe que le corps humain réagit moins bien au traitement anticancer lorsqu'il est mêlé à un traitement antibiotique[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurence Zitvogel travaille sur de nouveaux moyens de combattre le cancer par l'immunothérapie. Elle s'intéresse plus particulièrement aux bactéries de la flore intestinale et a découvert avec son équipe que le corps humain réagit moins bien au traitement anticancer lorsqu'il est mêlé à un traitement antibiotique.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2001, elle rencontre Guido Kroemer, biologiste hispano-autrichien avec qui elle travaille et vit[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, elle rencontre Guido Kroemer, biologiste hispano-autrichien avec qui elle travaille et vit.
 </t>
         </is>
       </c>
